--- a/comparison_results/PSO_PID_No_Disturbance_Test_1.xlsx
+++ b/comparison_results/PSO_PID_No_Disturbance_Test_1.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03811675428505579</v>
+        <v>0.0381167553348585</v>
       </c>
       <c r="C2" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D2" t="n">
-        <v>1.530375626886826</v>
+        <v>1.530376509371512</v>
       </c>
       <c r="E2" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01200872368916949</v>
+        <v>0.01200871070732008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08004906429233306</v>
+        <v>0.08004905182475985</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5891234695880424</v>
+        <v>0.589123382062352</v>
       </c>
       <c r="I2" t="n">
-        <v>0.183284411395385</v>
+        <v>0.1832844120915489</v>
       </c>
       <c r="J2" t="n">
-        <v>11.03518343508823</v>
+        <v>11.03518301917438</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9677484147671339</v>
+        <v>0.9677484295921892</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>5.814024127397706</v>
+        <v>5.721522818688885</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09154994626473216</v>
+        <v>0.007503130626012101</v>
       </c>
       <c r="O2" t="n">
         <v>0.1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1</v>
+        <v>5.781482563101362</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02528413623888882</v>
+        <v>0.09099502788048555</v>
       </c>
       <c r="R2" t="n">
-        <v>1.925893748430316</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>7.271814899458343</v>
+        <v>10</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05551646851198427</v>
+        <v>0.04815328039588638</v>
       </c>
       <c r="U2" t="n">
-        <v>1.387750090063915</v>
+        <v>1.814994061178686</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03811675829920234</v>
+        <v>0.03811675440182045</v>
       </c>
       <c r="C3" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D3" t="n">
-        <v>1.530377847217412</v>
+        <v>1.530375689875263</v>
       </c>
       <c r="E3" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01200870543408147</v>
+        <v>0.01200872344983471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08004904771583961</v>
+        <v>0.08004906359294942</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5891233532842471</v>
+        <v>0.5891234666112812</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1832844131717878</v>
+        <v>0.1832844111298112</v>
       </c>
       <c r="J3" t="n">
-        <v>11.03518224429331</v>
+        <v>11.0351834761609</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9677484363415105</v>
+        <v>0.9677484149819259</v>
       </c>
       <c r="L3" t="n">
-        <v>4.999999630787358</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>9.478694295071987</v>
+        <v>7.228053733361311</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09987780824963377</v>
+        <v>0.09997965115914449</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2991806766915489</v>
+        <v>0.4503233142663064</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1755216533384833</v>
+        <v>5.845023819436375</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04195637852999013</v>
+        <v>0.001</v>
       </c>
       <c r="R3" t="n">
-        <v>1.880247999783555</v>
+        <v>0.1</v>
       </c>
       <c r="S3" t="n">
-        <v>9.451006782147202</v>
+        <v>0.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001118842823591868</v>
+        <v>0.02337593569045218</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3886006819670457</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03811675720885286</v>
+        <v>0.03811675419452899</v>
       </c>
       <c r="C4" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D4" t="n">
-        <v>1.530378088617823</v>
+        <v>1.530375550903207</v>
       </c>
       <c r="E4" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01200868739929727</v>
+        <v>0.01200872480467959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08004902949196681</v>
+        <v>0.08004906536519607</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5891232250657554</v>
+        <v>0.5891234771134776</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1832844133722389</v>
+        <v>0.1832844113364793</v>
       </c>
       <c r="J4" t="n">
-        <v>11.03518226704062</v>
+        <v>11.03518347066696</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9677484562160307</v>
+        <v>0.9677484134934323</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>0.4152454991253592</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1</v>
+        <v>0.09647312832148849</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1</v>
+        <v>1.999599975238677</v>
       </c>
       <c r="P4" t="n">
+        <v>2.178119439699099</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.001625477719675536</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" t="n">
         <v>10</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="T4" t="n">
-        <v>0.1</v>
+        <v>0.06566472154213973</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.89940020688167</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03811675506395686</v>
+        <v>0.03811683386647623</v>
       </c>
       <c r="C5" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D5" t="n">
-        <v>1.530376243059295</v>
+        <v>1.530442713009683</v>
       </c>
       <c r="E5" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01200871537897906</v>
+        <v>0.01200773313980179</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08004905579623946</v>
+        <v>0.08004811552698091</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5891234120640718</v>
+        <v>0.589116798383247</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1832844115355867</v>
+        <v>0.1832844659983481</v>
       </c>
       <c r="J5" t="n">
-        <v>11.0351832223186</v>
+        <v>11.03515144038205</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9677484241930253</v>
+        <v>0.9677495462663063</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
+        <v>5.46922179285159</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.07595436298712496</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.108734485328505</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.01481907746546327</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
         <v>10</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.002116584443091909</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.953433002009538</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.943655385886414</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.01908950763855292</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.4404269977428423</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.183857993411556</v>
-      </c>
       <c r="T5" t="n">
-        <v>0.1</v>
+        <v>0.01569849364732902</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1</v>
+        <v>0.3502432628408338</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03811675497415913</v>
+        <v>0.03811675445082601</v>
       </c>
       <c r="C6" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D6" t="n">
-        <v>1.530376203788175</v>
+        <v>1.530375690788333</v>
       </c>
       <c r="E6" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01200871524915745</v>
+        <v>0.01200872422333162</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08004905615472312</v>
+        <v>0.08004906379846836</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5891234125910836</v>
+        <v>0.5891234702669046</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1832844118290599</v>
+        <v>0.1832844107696907</v>
       </c>
       <c r="J6" t="n">
-        <v>11.03518316799942</v>
+        <v>11.03518355672743</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9677484244015087</v>
+        <v>0.9677484140316213</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.429888918330906</v>
+        <v>0.7918251353549087</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03675938326193275</v>
+        <v>0.08864966185858894</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4600597221334675</v>
+        <v>0.1751361337571543</v>
       </c>
       <c r="P6" t="n">
-        <v>9.58919664057691</v>
+        <v>4.109378542500701</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0999885814921487</v>
+        <v>0.0247237291704401</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1</v>
+        <v>0.1261524447684207</v>
       </c>
       <c r="S6" t="n">
-        <v>9.890887318578709</v>
+        <v>0.1</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09979968925777523</v>
+        <v>0.01142050135604993</v>
       </c>
       <c r="U6" t="n">
-        <v>1.918000580786747</v>
+        <v>0.3107405085748584</v>
       </c>
     </row>
     <row r="7">
@@ -870,34 +870,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03811675594697263</v>
+        <v>0.03811708721264796</v>
       </c>
       <c r="C7" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D7" t="n">
-        <v>1.530377020020035</v>
+        <v>1.530656128571373</v>
       </c>
       <c r="E7" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01200870327178944</v>
+        <v>0.01200458490152129</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08004904463155246</v>
+        <v>0.08004509869219334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5891233317790603</v>
+        <v>0.5890955896985628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1832844124593137</v>
+        <v>0.1832846383728638</v>
       </c>
       <c r="J7" t="n">
-        <v>11.03518278637626</v>
+        <v>11.03504996280785</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9677484380769301</v>
+        <v>0.9677531421872387</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
@@ -906,28 +906,28 @@
         <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06629106926946676</v>
+        <v>0.09749594188038678</v>
       </c>
       <c r="O7" t="n">
-        <v>1.016246830975212</v>
+        <v>0.1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7050921638239392</v>
+        <v>0.3026093413363232</v>
       </c>
       <c r="Q7" t="n">
+        <v>0.03169643787615192</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.659028242762019</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9.999999754390537</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.001</v>
       </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>8.031099609750772</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.1</v>
-      </c>
       <c r="U7" t="n">
-        <v>0.1017602178945041</v>
+        <v>1.167756087656748</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03811689146636921</v>
+        <v>0.03811677701632805</v>
       </c>
       <c r="C8" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D8" t="n">
-        <v>1.530491270384737</v>
+        <v>1.530394761899023</v>
       </c>
       <c r="E8" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01200701614186808</v>
+        <v>0.01200844168421714</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08004742885072318</v>
+        <v>0.08004879381340897</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5891119695701773</v>
+        <v>0.589121569278954</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1832845055356641</v>
+        <v>0.1832844267266036</v>
       </c>
       <c r="J8" t="n">
-        <v>11.03512827954414</v>
+        <v>11.03517436371498</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9677503652874079</v>
+        <v>0.9677487368556293</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>7.247481695810521</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.182097873928194</v>
+        <v>0.8544658479979323</v>
       </c>
       <c r="P8" t="n">
-        <v>4.091886688936929</v>
+        <v>9.528299910280987</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1</v>
+        <v>0.06243070783956651</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1492213756028682</v>
+        <v>1.999988285329534</v>
       </c>
       <c r="S8" t="n">
-        <v>5.87676772527384</v>
+        <v>9.944120160546422</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0516543805610604</v>
+        <v>0.0412048380696854</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1998450245083103</v>
+        <v>1.626207190080243</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03811804956576093</v>
+        <v>0.03811675557762916</v>
       </c>
       <c r="C9" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D9" t="n">
-        <v>1.531466326312669</v>
+        <v>1.530376710041459</v>
       </c>
       <c r="E9" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01199261839758731</v>
+        <v>0.01200870782222096</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08003364981390707</v>
+        <v>0.08004904900802202</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5890151179506552</v>
+        <v>0.5891233624767098</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1832852996198497</v>
+        <v>0.1832844122190515</v>
       </c>
       <c r="J9" t="n">
-        <v>11.03466326643794</v>
+        <v>11.03518293150451</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9677668109311741</v>
+        <v>0.9677484328812045</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>9.118355344182811</v>
+        <v>6.134670946505499</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08812403499398862</v>
+        <v>0.001</v>
       </c>
       <c r="O9" t="n">
-        <v>1.599794823893233</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>8.518507989935364</v>
+        <v>4.998131372388285</v>
       </c>
       <c r="Q9" t="n">
         <v>0.001</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>0.3443152422190081</v>
       </c>
       <c r="S9" t="n">
-        <v>1.264793483073297</v>
+        <v>4.759861982416082</v>
       </c>
       <c r="T9" t="n">
-        <v>0.07080459429143389</v>
+        <v>0.08947917523919496</v>
       </c>
       <c r="U9" t="n">
-        <v>1.779262087649538</v>
+        <v>1.812561498109369</v>
       </c>
     </row>
     <row r="10">
@@ -1065,46 +1065,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03811677417124142</v>
+        <v>0.03811675835297693</v>
       </c>
       <c r="C10" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D10" t="n">
-        <v>1.530391879178117</v>
+        <v>1.530379047852448</v>
       </c>
       <c r="E10" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01200849368542582</v>
+        <v>0.01200867333809397</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08004883720090045</v>
+        <v>0.08004901595383265</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5891219008612075</v>
+        <v>0.5891231301640095</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1832844200524171</v>
+        <v>0.1832844141061234</v>
       </c>
       <c r="J10" t="n">
-        <v>11.03517670997432</v>
+        <v>11.03518182007602</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9677486766544248</v>
+        <v>0.9677484722694476</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7444923064632072</v>
+        <v>5.417686804684435</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05093139506994944</v>
+        <v>0.01455820179901388</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9184228070718945</v>
+        <v>0.1</v>
       </c>
       <c r="P10" t="n">
         <v>10</v>
@@ -1113,16 +1113,16 @@
         <v>0.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.084022406079043</v>
+        <v>1.755941085221265</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>0.5625895288864412</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09836719004965419</v>
+        <v>0.04492894668494711</v>
       </c>
       <c r="U10" t="n">
-        <v>1.995810261912953</v>
+        <v>1.942416729685226</v>
       </c>
     </row>
     <row r="11">
@@ -1130,34 +1130,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03811886268407418</v>
+        <v>0.03811677046550587</v>
       </c>
       <c r="C11" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D11" t="n">
-        <v>1.532149691254259</v>
+        <v>1.530389267452037</v>
       </c>
       <c r="E11" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01198253212522877</v>
+        <v>0.01200852226960826</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08002400512020916</v>
+        <v>0.08004887137006639</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5889473523048769</v>
+        <v>0.5891221130799134</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1832858542994172</v>
+        <v>0.1832844225031017</v>
       </c>
       <c r="J11" t="n">
-        <v>11.03433789574538</v>
+        <v>11.03517692835345</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9677783305838534</v>
+        <v>0.9677486448491888</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
@@ -1166,28 +1166,28 @@
         <v>0.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03260817302459736</v>
+        <v>0.09966750761847266</v>
       </c>
       <c r="O11" t="n">
-        <v>1.167805666897807</v>
+        <v>0.2703269408703648</v>
       </c>
       <c r="P11" t="n">
-        <v>1.404916457226395</v>
+        <v>9.999408457919664</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08042044558615773</v>
+        <v>0.0549321397334185</v>
       </c>
       <c r="R11" t="n">
         <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>6.985639275112344</v>
+        <v>5.016788150892514</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04405234336245407</v>
+        <v>0.05914354443784006</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3917297859968474</v>
+        <v>1.983698383415122</v>
       </c>
     </row>
     <row r="12">
@@ -1195,34 +1195,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03816792580799786</v>
+        <v>0.03811675423637638</v>
       </c>
       <c r="C12" t="n">
-        <v>1.051051051051051</v>
+        <v>1.061061061061061</v>
       </c>
       <c r="D12" t="n">
-        <v>1.720470861337131</v>
+        <v>1.530375584458876</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01040612674308256</v>
+        <v>0.01200872434271415</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07783620307126292</v>
+        <v>0.08004906489994226</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5761033090417954</v>
+        <v>0.5891234739362355</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1829019354710104</v>
+        <v>0.1832844113484478</v>
       </c>
       <c r="J12" t="n">
-        <v>11.0670388142875</v>
+        <v>11.03518345810836</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9694837323385109</v>
+        <v>0.9677484140182968</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
@@ -1231,28 +1231,28 @@
         <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01200245878122589</v>
+        <v>0.02219912316379093</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6924154548624616</v>
+        <v>1.733666828904106</v>
       </c>
       <c r="P12" t="n">
-        <v>5.823636285128698</v>
+        <v>1.213293649182075</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1</v>
+        <v>0.07326760760768788</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8957801262555227</v>
+        <v>1.996055609150815</v>
       </c>
       <c r="S12" t="n">
-        <v>2.305136315932462</v>
+        <v>9.426407897380008</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07661745525255563</v>
+        <v>0.0750091796766988</v>
       </c>
       <c r="U12" t="n">
-        <v>1.081012750799874</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08107195817728134</v>
+        <v>0.0381167541103032</v>
       </c>
       <c r="C13" t="n">
-        <v>2.372372372372372</v>
+        <v>1.061061061061061</v>
       </c>
       <c r="D13" t="n">
-        <v>6.15548555861849</v>
+        <v>1.530375480057522</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006705375634853143</v>
+        <v>0.01200872584780495</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05284739220682779</v>
+        <v>0.0800490663662712</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4887758408313339</v>
+        <v>0.5891234841441207</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1655750016030708</v>
+        <v>0.1832844112801169</v>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>11.0351835041606</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9709417589443334</v>
+        <v>0.9677484123021118</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>4.144970348154163</v>
+        <v>0.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001</v>
+        <v>0.01635777742059592</v>
       </c>
       <c r="O13" t="n">
-        <v>1.992686391061154</v>
+        <v>1.572188047912597</v>
       </c>
       <c r="P13" t="n">
-        <v>8.034983535989852</v>
+        <v>7.258851297482608</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.07317033118428903</v>
+        <v>0.1</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1</v>
+        <v>1.320860142572655</v>
       </c>
       <c r="S13" t="n">
-        <v>6.983154218735726</v>
+        <v>0.1</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001</v>
+        <v>0.04023328574321507</v>
       </c>
       <c r="U13" t="n">
-        <v>1.09274073734069</v>
+        <v>0.2882066939371154</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03811675686065003</v>
+        <v>0.03811675418517661</v>
       </c>
       <c r="C14" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D14" t="n">
-        <v>1.530377688430207</v>
+        <v>1.530375529513694</v>
       </c>
       <c r="E14" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0120086953862593</v>
+        <v>0.01200872538364369</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08004903572833916</v>
+        <v>0.08004906574070697</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5891232747525034</v>
+        <v>0.5891234804929849</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1832844120934908</v>
+        <v>0.1832844111983881</v>
       </c>
       <c r="J14" t="n">
-        <v>11.03518267181481</v>
+        <v>11.03518350795609</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9677484469162795</v>
+        <v>0.9677484128097626</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2752225844382834</v>
+        <v>2.453531550534718</v>
       </c>
       <c r="N14" t="n">
-        <v>0.003752606694649643</v>
+        <v>0.001397202014771728</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1</v>
+        <v>5.340125656022904</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.005275673904992307</v>
+        <v>0.001001225294411078</v>
       </c>
       <c r="R14" t="n">
-        <v>1.511755422049315</v>
+        <v>1.617907818902884</v>
       </c>
       <c r="S14" t="n">
-        <v>2.066580394188892</v>
+        <v>9.820045779047289</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09999077879272186</v>
+        <v>0.01996685378187054</v>
       </c>
       <c r="U14" t="n">
-        <v>1.452327014451234</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03811675443101801</v>
+        <v>0.03811675676105357</v>
       </c>
       <c r="C15" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D15" t="n">
-        <v>1.530375697130548</v>
+        <v>1.530377628699076</v>
       </c>
       <c r="E15" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01200872368074909</v>
+        <v>0.01200869579627342</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0800490635842573</v>
+        <v>0.08004903644210487</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5891234674995059</v>
+        <v>0.589123278445506</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1832844109807572</v>
+        <v>0.1832844122612627</v>
       </c>
       <c r="J15" t="n">
-        <v>11.03518350748661</v>
+        <v>11.03518265172923</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9677484146894946</v>
+        <v>0.9677484464879411</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>3.004547840393212</v>
+        <v>8.076206523104927</v>
       </c>
       <c r="N15" t="n">
-        <v>0.08355962450935681</v>
+        <v>0.02071598921426234</v>
       </c>
       <c r="O15" t="n">
-        <v>0.107950669262274</v>
+        <v>0.6578164730812368</v>
       </c>
       <c r="P15" t="n">
-        <v>9.986261636905178</v>
+        <v>4.359689927967043</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1</v>
+        <v>0.04668680341747573</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9002978902834551</v>
+        <v>1.595039230375542</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2147178410731937</v>
+        <v>3.101522424305946</v>
       </c>
       <c r="T15" t="n">
-        <v>0.05730101121042677</v>
+        <v>0.04119753258222771</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7405341490117847</v>
+        <v>0.8391178570650546</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03811675447245737</v>
+        <v>0.03811683512862982</v>
       </c>
       <c r="C16" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D16" t="n">
-        <v>1.530375780595827</v>
+        <v>1.530442117922837</v>
       </c>
       <c r="E16" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01200872150278811</v>
+        <v>0.0120077742515724</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08004906214146372</v>
+        <v>0.08004813290720228</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5891234546987167</v>
+        <v>0.5891170114208154</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1832844114823336</v>
+        <v>0.1832844506891888</v>
       </c>
       <c r="J16" t="n">
-        <v>11.03518337034487</v>
+        <v>11.03515505169475</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9677484172575758</v>
+        <v>0.9677494965631231</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>9.669913638235975</v>
+        <v>0.1945675598087097</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05902872557293232</v>
+        <v>0.09939826158690751</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1</v>
+        <v>0.6190565989743618</v>
       </c>
       <c r="P16" t="n">
-        <v>6.569995475479001</v>
+        <v>8.131607440352067</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05148312793120147</v>
+        <v>0.05229235884324344</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3842494425858515</v>
+        <v>1.239265116487192</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1</v>
+        <v>9.558119349936955</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05695998810215486</v>
+        <v>0.09999869617198728</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>0.8935888201300727</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03816202155973773</v>
+        <v>0.03811678447441591</v>
       </c>
       <c r="C17" t="n">
-        <v>1.071071071071071</v>
+        <v>1.061061061061061</v>
       </c>
       <c r="D17" t="n">
-        <v>1.415032162070617</v>
+        <v>1.530399325864473</v>
       </c>
       <c r="E17" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0125807365061447</v>
+        <v>0.01200840786884338</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08139832860503386</v>
+        <v>0.08004873857870473</v>
       </c>
       <c r="H17" t="n">
-        <v>0.595253818780739</v>
+        <v>0.589121275226774</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1837176824482603</v>
+        <v>0.183284415043967</v>
       </c>
       <c r="J17" t="n">
-        <v>10.97274388515067</v>
+        <v>11.03517564309251</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9671956430505217</v>
+        <v>0.9677487726351757</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.451901239231401</v>
+        <v>1.37483246645034</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07024913761390301</v>
+        <v>0.07356534934945472</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1.487740548043528</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1</v>
+        <v>2.573733477332218</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1</v>
+        <v>0.09222167608183557</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1</v>
+        <v>0.1406426399859523</v>
       </c>
       <c r="S17" t="n">
-        <v>4.549873859396759</v>
+        <v>6.30242785009964</v>
       </c>
       <c r="T17" t="n">
         <v>0.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.770102777067543</v>
+        <v>1.049891669786816</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03811676329134248</v>
+        <v>0.03811675700431916</v>
       </c>
       <c r="C18" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D18" t="n">
-        <v>1.530383219297304</v>
+        <v>1.530377915177672</v>
       </c>
       <c r="E18" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01200861158054096</v>
+        <v>0.012008689980156</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08004895691118279</v>
+        <v>0.08004903195041635</v>
       </c>
       <c r="H18" t="n">
-        <v>0.589122714561342</v>
+        <v>0.5891232424077102</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1832844175768887</v>
+        <v>0.1832844132218861</v>
       </c>
       <c r="J18" t="n">
-        <v>11.0351798136538</v>
+        <v>11.03518235181863</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9677485428289265</v>
+        <v>0.9677484532662205</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1</v>
+        <v>9.049022132171572</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.732267484163419</v>
+        <v>0.4178453645988955</v>
       </c>
       <c r="P18" t="n">
-        <v>1.114253344981097</v>
+        <v>1.215550721285366</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1</v>
+        <v>0.03512545342265842</v>
       </c>
       <c r="R18" t="n">
+        <v>0.3416060653254746</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.18738371341712</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.04568501920966361</v>
+      </c>
+      <c r="U18" t="n">
         <v>2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.891582759114666</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.121950167560823</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03811675526753178</v>
+        <v>0.03811675576441218</v>
       </c>
       <c r="C19" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D19" t="n">
-        <v>1.530376436161029</v>
+        <v>1.530376806363054</v>
       </c>
       <c r="E19" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01200871210902675</v>
+        <v>0.01200870759090709</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08004905294904008</v>
+        <v>0.08004904797630542</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5891233908685983</v>
+        <v>0.5891233585677191</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1832844118848105</v>
+        <v>0.1832844117513813</v>
       </c>
       <c r="J19" t="n">
-        <v>11.03518308711609</v>
+        <v>11.03518300814136</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9677484279638063</v>
+        <v>0.9677484330444422</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1951317081051007</v>
+        <v>0.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.003813439074923243</v>
+        <v>0.001</v>
       </c>
       <c r="O19" t="n">
-        <v>1.706882156190664</v>
+        <v>0.1404579617728486</v>
       </c>
       <c r="P19" t="n">
+        <v>0.3891938904168434</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.1223386317541848</v>
+      </c>
+      <c r="S19" t="n">
         <v>10</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0.09975168586843799</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.1005281573066037</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.658361577690217</v>
-      </c>
       <c r="T19" t="n">
-        <v>0.005696713827440107</v>
+        <v>0.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.684877702837201</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03816202158897667</v>
+        <v>0.03811699740560147</v>
       </c>
       <c r="C20" t="n">
-        <v>1.071071071071071</v>
+        <v>1.061061061061061</v>
       </c>
       <c r="D20" t="n">
-        <v>1.415032176384012</v>
+        <v>1.530506618699778</v>
       </c>
       <c r="E20" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01258073649984794</v>
+        <v>0.01200755068135981</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08139832845277384</v>
+        <v>0.0800483242764382</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5952538183180792</v>
+        <v>0.5891170168754641</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1837176823628162</v>
+        <v>0.1832847227425207</v>
       </c>
       <c r="J20" t="n">
-        <v>10.97274389981944</v>
+        <v>11.03506342303353</v>
       </c>
       <c r="K20" t="n">
-        <v>0.967195643038981</v>
+        <v>0.9677498532701098</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4.999969171496744</v>
       </c>
       <c r="M20" t="n">
-        <v>6.831290204538359</v>
+        <v>6.7236263667497</v>
       </c>
       <c r="N20" t="n">
-        <v>0.07368549438978643</v>
+        <v>0.06647662779527561</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7361793320893287</v>
+        <v>1.515476371201271</v>
       </c>
       <c r="P20" t="n">
-        <v>3.68289890594323</v>
+        <v>8.683229242832979</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06983802264768468</v>
+        <v>0.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.797158475320787</v>
+        <v>1.297604831036065</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1</v>
+        <v>4.169734350193804</v>
       </c>
       <c r="T20" t="n">
-        <v>0.09365810885186854</v>
+        <v>0.03845535415367245</v>
       </c>
       <c r="U20" t="n">
-        <v>0.120866761105881</v>
+        <v>0.9736736198736117</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03811677087625885</v>
+        <v>0.03811675546688577</v>
       </c>
       <c r="C21" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D21" t="n">
-        <v>1.530389483877226</v>
+        <v>1.530376620387108</v>
       </c>
       <c r="E21" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01200852160366752</v>
+        <v>0.01200870907391033</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08004886901091661</v>
+        <v>0.08004905025599482</v>
       </c>
       <c r="H21" t="n">
-        <v>0.589122103598774</v>
+        <v>0.5891233710489194</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1832844215191247</v>
+        <v>0.1832844121791294</v>
       </c>
       <c r="J21" t="n">
-        <v>11.03517708553539</v>
+        <v>11.03518296684415</v>
       </c>
       <c r="K21" t="n">
-        <v>0.967748645395332</v>
+        <v>0.9677484314575141</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>6.310816210158714</v>
+        <v>0.1197215299197644</v>
       </c>
       <c r="N21" t="n">
-        <v>0.07631735106901959</v>
+        <v>0.06306162418278399</v>
       </c>
       <c r="O21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.1469160142617284</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.09827725023846234</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.101137019853181</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8.132638476715881</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.09288619397206398</v>
+      </c>
+      <c r="U21" t="n">
         <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.131793534586321</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.002164454945072017</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.2028369694509478</v>
       </c>
     </row>
   </sheetData>

--- a/comparison_results/PSO_PID_No_Disturbance_Test_1.xlsx
+++ b/comparison_results/PSO_PID_No_Disturbance_Test_1.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0381167553348585</v>
+        <v>0.03811679723588253</v>
       </c>
       <c r="C2" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D2" t="n">
-        <v>1.530376509371512</v>
+        <v>1.530411706182955</v>
       </c>
       <c r="E2" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01200871070732008</v>
+        <v>0.012008193455194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08004905182475985</v>
+        <v>0.08004855472033971</v>
       </c>
       <c r="H2" t="n">
-        <v>0.589123382062352</v>
+        <v>0.5891198936237532</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1832844120915489</v>
+        <v>0.1832844396194805</v>
       </c>
       <c r="J2" t="n">
-        <v>11.03518301917438</v>
+        <v>11.03516648429693</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9677484295921892</v>
+        <v>0.9677490202403016</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>5.721522818688885</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007503130626012101</v>
+        <v>0.001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1</v>
+        <v>1.525812552657061</v>
       </c>
       <c r="P2" t="n">
-        <v>5.781482563101362</v>
+        <v>3.395211082942858</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09099502788048555</v>
+        <v>0.03470937007128849</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>0.7435121645441702</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04815328039588638</v>
+        <v>0.03501460880857645</v>
       </c>
       <c r="U2" t="n">
-        <v>1.814994061178686</v>
+        <v>0.5087364018004132</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03811675440182045</v>
+        <v>0.0381167541346878</v>
       </c>
       <c r="C3" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D3" t="n">
-        <v>1.530375689875263</v>
+        <v>1.530375499913217</v>
       </c>
       <c r="E3" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01200872344983471</v>
+        <v>0.01200872556826744</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08004906359294942</v>
+        <v>0.08004906608923706</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5891234666112812</v>
+        <v>0.5891234822345633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1832844111298112</v>
+        <v>0.1832844112900251</v>
       </c>
       <c r="J3" t="n">
-        <v>11.0351834761609</v>
+        <v>11.03518349609452</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9677484149819259</v>
+        <v>0.9677484126202702</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>7.228053733361311</v>
+        <v>9.999350149747212</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09997965115914449</v>
+        <v>0.001291420120567102</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4503233142663064</v>
+        <v>1.70570252863969</v>
       </c>
       <c r="P3" t="n">
-        <v>5.845023819436375</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001</v>
+        <v>0.04251978312219201</v>
       </c>
       <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.158718140287746</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.07641314049942589</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.02337593569045218</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03811675419452899</v>
+        <v>0.03811675493687432</v>
       </c>
       <c r="C4" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D4" t="n">
-        <v>1.530375550903207</v>
+        <v>1.53037617520928</v>
       </c>
       <c r="E4" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01200872480467959</v>
+        <v>0.01200871561558801</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08004906536519607</v>
+        <v>0.08004905654349333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5891234771134776</v>
+        <v>0.5891234151685696</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1832844113364793</v>
+        <v>0.1832844118312655</v>
       </c>
       <c r="J4" t="n">
-        <v>11.03518347066696</v>
+        <v>11.0351831759128</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9677484134934323</v>
+        <v>0.9677484239876455</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4152454991253592</v>
+        <v>4.771592307281503</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09647312832148849</v>
+        <v>0.006852426751989048</v>
       </c>
       <c r="O4" t="n">
-        <v>1.999599975238677</v>
+        <v>0.6728171145513582</v>
       </c>
       <c r="P4" t="n">
-        <v>2.178119439699099</v>
+        <v>7.785058526980659</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001625477719675536</v>
+        <v>0.09676943621868728</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1</v>
+        <v>0.5837184296940687</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>9.085780465207472</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06566472154213973</v>
+        <v>0.09313219781258592</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89940020688167</v>
+        <v>1.196108755147265</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03811683386647623</v>
+        <v>0.0381768608173177</v>
       </c>
       <c r="C5" t="n">
-        <v>1.061061061061061</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="D5" t="n">
-        <v>1.530442713009683</v>
+        <v>1.252785101138598</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01200773313980179</v>
+        <v>0.0140635590839479</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08004811552698091</v>
+        <v>0.0838639176152432</v>
       </c>
       <c r="H5" t="n">
-        <v>0.589116798383247</v>
+        <v>0.6078841159494365</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1832844659983481</v>
+        <v>0.1841538091767765</v>
       </c>
       <c r="J5" t="n">
-        <v>11.03515144038205</v>
+        <v>10.92306639176286</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9677495462663063</v>
+        <v>0.9656383854826674</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.992754969159089</v>
       </c>
       <c r="M5" t="n">
-        <v>5.46922179285159</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07595436298712496</v>
+        <v>0.1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1</v>
+        <v>0.7622314063862149</v>
       </c>
       <c r="P5" t="n">
-        <v>4.108734485328505</v>
+        <v>1.450291623325902</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01481907746546327</v>
+        <v>0.07058635493074661</v>
       </c>
       <c r="R5" t="n">
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01569849364732902</v>
+        <v>0.06415157963990491</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3502432628408338</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03811675445082601</v>
+        <v>0.03811675618138332</v>
       </c>
       <c r="C6" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D6" t="n">
-        <v>1.530375690788333</v>
+        <v>1.530376768997543</v>
       </c>
       <c r="E6" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01200872422333162</v>
+        <v>0.01200871571951192</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08004906379846836</v>
+        <v>0.08004905060639556</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5891234702669046</v>
+        <v>0.5891233983464764</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1832844107696907</v>
+        <v>0.1832844082459409</v>
       </c>
       <c r="J6" t="n">
-        <v>11.03518355672743</v>
+        <v>11.03518380595084</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9677484140316213</v>
+        <v>0.9677484231164533</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7918251353549087</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08864966185858894</v>
+        <v>0.001</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1751361337571543</v>
+        <v>0.7157962596747762</v>
       </c>
       <c r="P6" t="n">
-        <v>4.109378542500701</v>
+        <v>3.083095089312633</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0247237291704401</v>
+        <v>0.04290024751347919</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1261524447684207</v>
+        <v>1.820416963216346</v>
       </c>
       <c r="S6" t="n">
         <v>0.1</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01142050135604993</v>
+        <v>0.001</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3107405085748584</v>
+        <v>0.1186597639215714</v>
       </c>
     </row>
     <row r="7">
@@ -870,34 +870,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03811708721264796</v>
+        <v>0.03811675545599351</v>
       </c>
       <c r="C7" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D7" t="n">
-        <v>1.530656128571373</v>
+        <v>1.530376600726746</v>
       </c>
       <c r="E7" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01200458490152129</v>
+        <v>0.01200870956818577</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08004509869219334</v>
+        <v>0.0800490505908007</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5890955896985628</v>
+        <v>0.5891233739756891</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1832846383728638</v>
+        <v>0.1832844120696573</v>
       </c>
       <c r="J7" t="n">
-        <v>11.03504996280785</v>
+        <v>11.03518299720537</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9677531421872387</v>
+        <v>0.9677484308756187</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
@@ -906,28 +906,28 @@
         <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09749594188038678</v>
+        <v>0.001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3026093413363232</v>
+        <v>0.6773680032187673</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03169643787615192</v>
+        <v>0.04878526836599274</v>
       </c>
       <c r="R7" t="n">
-        <v>1.659028242762019</v>
+        <v>1.986533022180977</v>
       </c>
       <c r="S7" t="n">
-        <v>9.999999754390537</v>
+        <v>3.895000643968106</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001</v>
+        <v>0.03689956101984266</v>
       </c>
       <c r="U7" t="n">
-        <v>1.167756087656748</v>
+        <v>1.278158210854512</v>
       </c>
     </row>
     <row r="8">
@@ -935,34 +935,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03811677701632805</v>
+        <v>0.0381167541120819</v>
       </c>
       <c r="C8" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D8" t="n">
-        <v>1.530394761899023</v>
+        <v>1.530375480151358</v>
       </c>
       <c r="E8" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01200844168421714</v>
+        <v>0.01200872587379741</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08004879381340897</v>
+        <v>0.08004906637254607</v>
       </c>
       <c r="H8" t="n">
-        <v>0.589121569278954</v>
+        <v>0.5891234842651398</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1832844267266036</v>
+        <v>0.1832844112676406</v>
       </c>
       <c r="J8" t="n">
-        <v>11.03517436371498</v>
+        <v>11.03518350693359</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9677487368556293</v>
+        <v>0.9677484122700984</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
@@ -971,28 +971,28 @@
         <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1</v>
+        <v>0.02035873427960279</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8544658479979323</v>
+        <v>1.943520545947981</v>
       </c>
       <c r="P8" t="n">
-        <v>9.528299910280987</v>
+        <v>6.954251050145302</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06243070783956651</v>
+        <v>0.05703396368615236</v>
       </c>
       <c r="R8" t="n">
-        <v>1.999988285329534</v>
+        <v>0.4590379094751528</v>
       </c>
       <c r="S8" t="n">
-        <v>9.944120160546422</v>
+        <v>6.151288721443322</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0412048380696854</v>
+        <v>0.001</v>
       </c>
       <c r="U8" t="n">
-        <v>1.626207190080243</v>
+        <v>1.853064664132174</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03811675557762916</v>
+        <v>0.03811675415199672</v>
       </c>
       <c r="C9" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D9" t="n">
-        <v>1.530376710041459</v>
+        <v>1.530375511624915</v>
       </c>
       <c r="E9" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01200870782222096</v>
+        <v>0.01200872545138857</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08004904900802202</v>
+        <v>0.08004906593919646</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5891233624767098</v>
+        <v>0.5891234813369534</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1832844122190515</v>
+        <v>0.1832844112738784</v>
       </c>
       <c r="J9" t="n">
-        <v>11.03518293150451</v>
+        <v>11.03518349627425</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9677484328812045</v>
+        <v>0.9677484127490317</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>6.134670946505499</v>
+        <v>0.2865385984870164</v>
       </c>
       <c r="N9" t="n">
         <v>0.001</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0.1284185721658143</v>
       </c>
       <c r="P9" t="n">
-        <v>4.998131372388285</v>
+        <v>0.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3443152422190081</v>
+        <v>0.4110122129563811</v>
       </c>
       <c r="S9" t="n">
-        <v>4.759861982416082</v>
+        <v>0.1038349797306703</v>
       </c>
       <c r="T9" t="n">
-        <v>0.08947917523919496</v>
+        <v>0.05765753199060124</v>
       </c>
       <c r="U9" t="n">
-        <v>1.812561498109369</v>
+        <v>0.34617437378497</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03811675835297693</v>
+        <v>0.03811871955570059</v>
       </c>
       <c r="C10" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D10" t="n">
-        <v>1.530379047852448</v>
+        <v>1.532025713436913</v>
       </c>
       <c r="E10" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01200867333809397</v>
+        <v>0.0119844344824334</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08004901595383265</v>
+        <v>0.08002577416981593</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5891231301640095</v>
+        <v>0.5889599899786161</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1832844141061234</v>
+        <v>0.1832857204271304</v>
       </c>
       <c r="J10" t="n">
-        <v>11.03518182007602</v>
+        <v>11.03440437774743</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9677484722694476</v>
+        <v>0.9677761518004903</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>5.417686804684435</v>
+        <v>4.683801262290323</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01455820179901388</v>
+        <v>0.07661865893096068</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1</v>
+        <v>1.3194921936287</v>
       </c>
       <c r="P10" t="n">
-        <v>10</v>
+        <v>8.624484111611947</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1</v>
+        <v>0.009499002611162637</v>
       </c>
       <c r="R10" t="n">
-        <v>1.755941085221265</v>
+        <v>1.228624277133342</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5625895288864412</v>
+        <v>9.343080212553099</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04492894668494711</v>
+        <v>0.08012669847245124</v>
       </c>
       <c r="U10" t="n">
-        <v>1.942416729685226</v>
+        <v>1.903435751671199</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03811677046550587</v>
+        <v>0.03811675835504758</v>
       </c>
       <c r="C11" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D11" t="n">
-        <v>1.530389267452037</v>
+        <v>1.530379014994065</v>
       </c>
       <c r="E11" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01200852226960826</v>
+        <v>0.01200867449752896</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08004887137006639</v>
+        <v>0.08004901660554649</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5891221130799134</v>
+        <v>0.589123136640652</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1832844225031017</v>
+        <v>0.1832844137701223</v>
       </c>
       <c r="J11" t="n">
-        <v>11.03517692835345</v>
+        <v>11.03518190516062</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9677486448491888</v>
+        <v>0.9677484708878319</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1</v>
+        <v>0.1765734039695253</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09966750761847266</v>
+        <v>0.05053033550725567</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2703269408703648</v>
+        <v>0.7103299186835675</v>
       </c>
       <c r="P11" t="n">
-        <v>9.999408457919664</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0549321397334185</v>
+        <v>0.08827834850332229</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.920284079993714</v>
       </c>
       <c r="S11" t="n">
-        <v>5.016788150892514</v>
+        <v>3.900010465769886</v>
       </c>
       <c r="T11" t="n">
-        <v>0.05914354443784006</v>
+        <v>0.005286537000537791</v>
       </c>
       <c r="U11" t="n">
-        <v>1.983698383415122</v>
+        <v>1.457359691432088</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03811675423637638</v>
+        <v>0.03811675431689908</v>
       </c>
       <c r="C12" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D12" t="n">
-        <v>1.530375584458876</v>
+        <v>1.530375647720228</v>
       </c>
       <c r="E12" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01200872434271415</v>
+        <v>0.01200872349872834</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08004906489994226</v>
+        <v>0.08004906403012187</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5891234739362355</v>
+        <v>0.58912346807371</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1832844113484478</v>
+        <v>0.183284411358572</v>
       </c>
       <c r="J12" t="n">
-        <v>11.03518345810836</v>
+        <v>11.03518343721938</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9677484140182968</v>
+        <v>0.9677484149747292</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>1.099219997422792</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02219912316379093</v>
+        <v>0.04675473726085399</v>
       </c>
       <c r="O12" t="n">
-        <v>1.733666828904106</v>
+        <v>0.4006699655008013</v>
       </c>
       <c r="P12" t="n">
-        <v>1.213293649182075</v>
+        <v>7.091284714168514</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.07326760760768788</v>
+        <v>0.09062038946938769</v>
       </c>
       <c r="R12" t="n">
-        <v>1.996055609150815</v>
+        <v>1.682600324813225</v>
       </c>
       <c r="S12" t="n">
-        <v>9.426407897380008</v>
+        <v>6.695835134682039</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0750091796766988</v>
+        <v>0.09070660792279685</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1</v>
+        <v>1.86571015255721</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0381167541103032</v>
+        <v>0.03811686001221391</v>
       </c>
       <c r="C13" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D13" t="n">
-        <v>1.530375480057522</v>
+        <v>1.530464422416467</v>
       </c>
       <c r="E13" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01200872584780495</v>
+        <v>0.01200741904285414</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0800490663662712</v>
+        <v>0.08004781030926006</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5891234841441207</v>
+        <v>0.5891146702479938</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1832844112801169</v>
+        <v>0.1832844807104589</v>
       </c>
       <c r="J13" t="n">
-        <v>11.0351835041606</v>
+        <v>11.03514175080177</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9677484123021118</v>
+        <v>0.9677499045090598</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1</v>
+        <v>3.503153586476257</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01635777742059592</v>
+        <v>0.001</v>
       </c>
       <c r="O13" t="n">
-        <v>1.572188047912597</v>
+        <v>0.770328326825178</v>
       </c>
       <c r="P13" t="n">
-        <v>7.258851297482608</v>
+        <v>7.697271712196164</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="R13" t="n">
-        <v>1.320860142572655</v>
+        <v>1.730981149487907</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04023328574321507</v>
+        <v>0.01039877030892025</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2882066939371154</v>
+        <v>1.479054329915663</v>
       </c>
     </row>
     <row r="14">
@@ -1325,61 +1325,61 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03811675418517661</v>
+        <v>0.03811691315836094</v>
       </c>
       <c r="C14" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D14" t="n">
-        <v>1.530375529513694</v>
+        <v>1.53046121091942</v>
       </c>
       <c r="E14" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01200872538364369</v>
+        <v>0.0120079575644801</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08004906574070697</v>
+        <v>0.08004858115265924</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5891234804929849</v>
+        <v>0.5891192559018047</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1832844111983881</v>
+        <v>0.1832846148743041</v>
       </c>
       <c r="J14" t="n">
-        <v>11.03518350795609</v>
+        <v>11.03510500737591</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9677484128097626</v>
+        <v>0.9677493543507785</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4.999979847986307</v>
       </c>
       <c r="M14" t="n">
-        <v>2.453531550534718</v>
+        <v>5.3252175526892</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001397202014771728</v>
+        <v>0.08375598924358522</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1.351564352206201</v>
       </c>
       <c r="P14" t="n">
-        <v>5.340125656022904</v>
+        <v>6.9576139758319</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001001225294411078</v>
+        <v>0.06037653105635504</v>
       </c>
       <c r="R14" t="n">
-        <v>1.617907818902884</v>
+        <v>0.1747724665407584</v>
       </c>
       <c r="S14" t="n">
-        <v>9.820045779047289</v>
+        <v>1.796388238010207</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01996685378187054</v>
+        <v>0.09516439253062327</v>
       </c>
       <c r="U14" t="n">
         <v>0.1</v>
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03811675676105357</v>
+        <v>0.03811675479947538</v>
       </c>
       <c r="C15" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D15" t="n">
-        <v>1.530377628699076</v>
+        <v>1.530375908901194</v>
       </c>
       <c r="E15" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01200869579627342</v>
+        <v>0.01200872247951244</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08004903644210487</v>
+        <v>0.08004906112338343</v>
       </c>
       <c r="H15" t="n">
-        <v>0.589123278445506</v>
+        <v>0.589123455606316</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1832844122612627</v>
+        <v>0.1832844102700152</v>
       </c>
       <c r="J15" t="n">
-        <v>11.03518265172923</v>
+        <v>11.03518360470893</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9677484464879411</v>
+        <v>0.9677484158983366</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>8.076206523104927</v>
+        <v>1.720013010754973</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02071598921426234</v>
+        <v>0.1</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6578164730812368</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.359689927967043</v>
+        <v>1.462331977620326</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04668680341747573</v>
+        <v>0.001001862163894556</v>
       </c>
       <c r="R15" t="n">
-        <v>1.595039230375542</v>
+        <v>0.611145072112388</v>
       </c>
       <c r="S15" t="n">
-        <v>3.101522424305946</v>
+        <v>4.504765487296855</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04119753258222771</v>
+        <v>0.001</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8391178570650546</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03811683512862982</v>
+        <v>0.08107195817732658</v>
       </c>
       <c r="C16" t="n">
-        <v>1.061061061061061</v>
+        <v>2.372372372372372</v>
       </c>
       <c r="D16" t="n">
-        <v>1.530442117922837</v>
+        <v>6.155485558658902</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0120077742515724</v>
+        <v>0.006705375634294039</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08004813290720228</v>
+        <v>0.05284739220644667</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5891170114208154</v>
+        <v>0.4887758408270233</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1832844506891888</v>
+        <v>0.1655750016030224</v>
       </c>
       <c r="J16" t="n">
-        <v>11.03515505169475</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9677494965631231</v>
+        <v>0.9709417589451721</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1945675598087097</v>
+        <v>1.173032333072079</v>
       </c>
       <c r="N16" t="n">
-        <v>0.09939826158690751</v>
+        <v>0.001004833587896055</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6190565989743618</v>
+        <v>0.5514460382676727</v>
       </c>
       <c r="P16" t="n">
-        <v>8.131607440352067</v>
+        <v>0.1007563614444552</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.05229235884324344</v>
+        <v>0.001</v>
       </c>
       <c r="R16" t="n">
-        <v>1.239265116487192</v>
+        <v>0.7557033453346388</v>
       </c>
       <c r="S16" t="n">
-        <v>9.558119349936955</v>
+        <v>10</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09999869617198728</v>
+        <v>0.02142832388907603</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8935888201300727</v>
+        <v>0.4242774354820918</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03811678447441591</v>
+        <v>0.03811715043065575</v>
       </c>
       <c r="C17" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D17" t="n">
-        <v>1.530399325864473</v>
+        <v>1.530709356040272</v>
       </c>
       <c r="E17" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01200840786884338</v>
+        <v>0.01200380021372909</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08004873857870473</v>
+        <v>0.08004434654984383</v>
       </c>
       <c r="H17" t="n">
-        <v>0.589121275226774</v>
+        <v>0.5890903025023461</v>
       </c>
       <c r="I17" t="n">
-        <v>0.183284415043967</v>
+        <v>0.1832846811337012</v>
       </c>
       <c r="J17" t="n">
-        <v>11.03517564309251</v>
+        <v>11.03502470676244</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9677487726351757</v>
+        <v>0.9677540384042022</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.37483246645034</v>
+        <v>1.726533507430548</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07356534934945472</v>
+        <v>0.001</v>
       </c>
       <c r="O17" t="n">
-        <v>1.487740548043528</v>
+        <v>1.477195722064713</v>
       </c>
       <c r="P17" t="n">
-        <v>2.573733477332218</v>
+        <v>0.1045572840942383</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09222167608183557</v>
+        <v>0.00101808866124457</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1406426399859523</v>
+        <v>1.999948283058778</v>
       </c>
       <c r="S17" t="n">
-        <v>6.30242785009964</v>
+        <v>3.901114030838679</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1</v>
+        <v>0.001945252534001957</v>
       </c>
       <c r="U17" t="n">
-        <v>1.049891669786816</v>
+        <v>1.99989863780403</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03811675700431916</v>
+        <v>0.0381167553530208</v>
       </c>
       <c r="C18" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D18" t="n">
-        <v>1.530377915177672</v>
+        <v>1.530376527340338</v>
       </c>
       <c r="E18" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F18" t="n">
-        <v>0.012008689980156</v>
+        <v>0.01200871039049051</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08004903195041635</v>
+        <v>0.08004905155607715</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5891232424077102</v>
+        <v>0.589123380029043</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1832844132218861</v>
+        <v>0.1832844121296708</v>
       </c>
       <c r="J18" t="n">
-        <v>11.03518235181863</v>
+        <v>11.0351830053232</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9677484532662205</v>
+        <v>0.9677484299584468</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>9.049022132171572</v>
+        <v>5.05675623986518</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1</v>
+        <v>0.03547962208422338</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4178453645988955</v>
+        <v>1.073712300586575</v>
       </c>
       <c r="P18" t="n">
-        <v>1.215550721285366</v>
+        <v>9.962383932044533</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03512545342265842</v>
+        <v>0.001</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3416060653254746</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>6.18738371341712</v>
+        <v>0.6862185552556321</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04568501920966361</v>
+        <v>0.07540714276357878</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.83727187833688</v>
       </c>
     </row>
     <row r="19">
@@ -1650,34 +1650,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03811675576441218</v>
+        <v>0.03811738582015987</v>
       </c>
       <c r="C19" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D19" t="n">
-        <v>1.530376806363054</v>
+        <v>1.530899870041469</v>
       </c>
       <c r="E19" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01200870759090709</v>
+        <v>0.01200114133330446</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08004904797630542</v>
+        <v>0.08004169633965283</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5891233585677191</v>
+        <v>0.5890720909465123</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1832844117513813</v>
+        <v>0.1832847655369748</v>
       </c>
       <c r="J19" t="n">
-        <v>11.03518300814136</v>
+        <v>11.0349497215348</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9677484330444422</v>
+        <v>0.9677570624546005</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
@@ -1686,28 +1686,28 @@
         <v>0.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.001</v>
+        <v>0.001000775504971345</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1404579617728486</v>
+        <v>1.305623072055692</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3891938904168434</v>
+        <v>4.210697731830302</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.001</v>
+        <v>0.08431541256420777</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1223386317541848</v>
+        <v>1.357914705686881</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>9.954671353405461</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1</v>
+        <v>0.03039679971129693</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1</v>
+        <v>0.2047930485629294</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03811699740560147</v>
+        <v>0.03811675420663788</v>
       </c>
       <c r="C20" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D20" t="n">
-        <v>1.530506618699778</v>
+        <v>1.530375552067986</v>
       </c>
       <c r="E20" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01200755068135981</v>
+        <v>0.0120087249636933</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0800483242764382</v>
+        <v>0.08004906539758412</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5891170168754641</v>
+        <v>0.5891234778362772</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1832847227425207</v>
+        <v>0.1832844112566027</v>
       </c>
       <c r="J20" t="n">
-        <v>11.03506342303353</v>
+        <v>11.03518348825254</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9677498532701098</v>
+        <v>0.9677484132968428</v>
       </c>
       <c r="L20" t="n">
-        <v>4.999969171496744</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>6.7236263667497</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06647662779527561</v>
+        <v>0.08962126677627164</v>
       </c>
       <c r="O20" t="n">
-        <v>1.515476371201271</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>8.683229242832979</v>
+        <v>4.033002761967344</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1</v>
+        <v>0.09439290092625349</v>
       </c>
       <c r="R20" t="n">
-        <v>1.297604831036065</v>
+        <v>0.1000221712544976</v>
       </c>
       <c r="S20" t="n">
-        <v>4.169734350193804</v>
+        <v>6.80648965054418</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03845535415367245</v>
+        <v>0.03818245238779978</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9736736198736117</v>
+        <v>1.028719451972882</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03811675546688577</v>
+        <v>0.03811675565286317</v>
       </c>
       <c r="C21" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D21" t="n">
-        <v>1.530376620387108</v>
+        <v>1.530376778514086</v>
       </c>
       <c r="E21" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01200870907391033</v>
+        <v>0.01200870671262048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08004905025599482</v>
+        <v>0.08004904801240914</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5891233710489194</v>
+        <v>0.5891233551991504</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1832844121791294</v>
+        <v>0.1832844123200682</v>
       </c>
       <c r="J21" t="n">
-        <v>11.03518296684415</v>
+        <v>11.03518288868785</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9677484314575141</v>
+        <v>0.9677484341570757</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1197215299197644</v>
+        <v>0.1174471031261952</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06306162418278399</v>
+        <v>0.001</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1</v>
+        <v>1.835087295356679</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1469160142617284</v>
+        <v>0.2940595089342219</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09827725023846234</v>
+        <v>0.09865083032425927</v>
       </c>
       <c r="R21" t="n">
-        <v>0.101137019853181</v>
+        <v>1.968373184088914</v>
       </c>
       <c r="S21" t="n">
-        <v>8.132638476715881</v>
+        <v>0.9806437973159708</v>
       </c>
       <c r="T21" t="n">
-        <v>0.09288619397206398</v>
+        <v>0.001</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.989364159547196</v>
       </c>
     </row>
   </sheetData>
